--- a/biology/Médecine/Infections_intestinales_transmises_sexuellement/Infections_intestinales_transmises_sexuellement.xlsx
+++ b/biology/Médecine/Infections_intestinales_transmises_sexuellement/Infections_intestinales_transmises_sexuellement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les infections intestinales transmises sexuellement comprennent les infections transmises par inoculation directe des germes dans le rectum au cours de relations anales et les infections transmises par voie fécale-orale.
 </t>
@@ -513,19 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rectite
-Il s’agit d’une inflammation de la muqueuse rectale qui ne s’étend pas à plus de 15 cm de la marge anale.
+          <t>Rectite</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Il s’agit d’une inflammation de la muqueuse rectale qui ne s’étend pas à plus de 15 cm de la marge anale.
 Le tableau clinique associe douleur ano-rectale, ténesme, constipation, selles sanguinolentes et/ou écoulement mucopurulent.
 La sigmoïdoscopie révèle entre autres un érythème, une friabilité et/ou des ulcérations de la muqueuse rectale.
-Transmission par relations anales
-Colite et rectocolite
-Il s’agit d’une inflammation du côlon ou de la muqueuse rectale qui s’étend à plus de 15 cm de la marge anale.
-Le tableau clinique associe diarrhée, douleur abdominale et/ou fièvre (avec ou sans symptômes de rectite).
-Transmission fécale-orale.
-Entérite
-C’est une inflammation du duodénum, du jéjunum et/ou de l’iléon.
-Le tableau clinique associe diarrhée, douleur abdominale, ballonnements, crampes et/ou nausées.
-Transmission fécale-orale.</t>
+Transmission par relations anales</t>
         </is>
       </c>
     </row>
@@ -550,55 +559,206 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Manifestations cliniques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Colite et rectocolite</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il s’agit d’une inflammation du côlon ou de la muqueuse rectale qui s’étend à plus de 15 cm de la marge anale.
+Le tableau clinique associe diarrhée, douleur abdominale et/ou fièvre (avec ou sans symptômes de rectite).
+Transmission fécale-orale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Infections_intestinales_transmises_sexuellement</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Infections_intestinales_transmises_sexuellement</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Manifestations cliniques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Entérite</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>C’est une inflammation du duodénum, du jéjunum et/ou de l’iléon.
+Le tableau clinique associe diarrhée, douleur abdominale, ballonnements, crampes et/ou nausées.
+Transmission fécale-orale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Infections_intestinales_transmises_sexuellement</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Infections_intestinales_transmises_sexuellement</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Germes en cause</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Rectite
-La découverte de lésion en rapport avec un papillomavirus n'est pas la cause d'une rectite
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Rectite</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La découverte de lésion en rapport avec un papillomavirus n'est pas la cause d'une rectite
 Neisseria gonorrhoeae responsable de la gonorrhée
 Virus Herpes simplex responsable de l'infection herpétique
 Chlamydia trachomatis responsable de chlamydiose
-Treponema pallidum responsable de la syphilis
-Colite et rectocolite
-Entamoeba histolytica
+Treponema pallidum responsable de la syphilis</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Infections_intestinales_transmises_sexuellement</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Infections_intestinales_transmises_sexuellement</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Germes en cause</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Colite et rectocolite</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Entamoeba histolytica
 Campylobacter
 Shigella
 Clostridium difficile toxinogène
-Escherichia coli
-Entérite
-La présence d'une infection à VIH doit faire considérer de nombreux germes.
+Escherichia coli</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Infections_intestinales_transmises_sexuellement</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Infections_intestinales_transmises_sexuellement</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Germes en cause</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Entérite</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La présence d'une infection à VIH doit faire considérer de nombreux germes.
 Giardia
 Escherichia coli</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Infections_intestinales_transmises_sexuellement</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Infections_intestinales_transmises_sexuellement</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr) Lignes directrices canadiennes pour les maladies sexuellement transmissibles
  Portail de la médecine                     </t>
